--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rspo1-Znrf3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rspo1-Znrf3.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Rspo1</t>
+  </si>
+  <si>
+    <t>Znrf3</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo1</t>
-  </si>
-  <si>
-    <t>Znrf3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H2">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I2">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J2">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.5662895</v>
+        <v>1.684528</v>
       </c>
       <c r="N2">
-        <v>3.132579</v>
+        <v>3.369056</v>
       </c>
       <c r="O2">
-        <v>0.09556087194018067</v>
+        <v>0.1245924002783664</v>
       </c>
       <c r="P2">
-        <v>0.07675524026602094</v>
+        <v>0.09862679185493829</v>
       </c>
       <c r="Q2">
-        <v>0.191973838857</v>
+        <v>1.221129507952</v>
       </c>
       <c r="R2">
-        <v>1.151843033142</v>
+        <v>4.884518031808001</v>
       </c>
       <c r="S2">
-        <v>0.06307993345204684</v>
+        <v>0.07206685973197018</v>
       </c>
       <c r="T2">
-        <v>0.05066629625467724</v>
+        <v>0.04711620522144805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H3">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I3">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J3">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.021522</v>
       </c>
       <c r="O3">
-        <v>0.1224596714564327</v>
+        <v>0.1484562004527854</v>
       </c>
       <c r="P3">
-        <v>0.1475408498483617</v>
+        <v>0.1762759054595506</v>
       </c>
       <c r="Q3">
-        <v>0.246011288484</v>
+        <v>1.455018497166</v>
       </c>
       <c r="R3">
-        <v>2.214101596356</v>
+        <v>8.730110982996001</v>
       </c>
       <c r="S3">
-        <v>0.08083588783981419</v>
+        <v>0.08587018269548355</v>
       </c>
       <c r="T3">
-        <v>0.09739202668346325</v>
+        <v>0.08421090842582143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H4">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I4">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J4">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.745325666666667</v>
+        <v>2.067628</v>
       </c>
       <c r="N4">
-        <v>8.235977</v>
+        <v>6.202884000000001</v>
       </c>
       <c r="O4">
-        <v>0.1674950349002687</v>
+        <v>0.1529275473027211</v>
       </c>
       <c r="P4">
-        <v>0.2017999844410699</v>
+        <v>0.1815851529830098</v>
       </c>
       <c r="Q4">
-        <v>0.3364835856606667</v>
+        <v>1.498842145852</v>
       </c>
       <c r="R4">
-        <v>3.028352270946</v>
+        <v>8.993052875112001</v>
       </c>
       <c r="S4">
-        <v>0.110563826391947</v>
+        <v>0.08845650357482575</v>
       </c>
       <c r="T4">
-        <v>0.1332085960573406</v>
+        <v>0.08674725368436635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H5">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I5">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J5">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.792605</v>
+        <v>4.716762</v>
       </c>
       <c r="N5">
-        <v>13.58521</v>
+        <v>9.433524</v>
       </c>
       <c r="O5">
-        <v>0.4144235510390837</v>
+        <v>0.3488649040691446</v>
       </c>
       <c r="P5">
-        <v>0.3328682397520862</v>
+        <v>0.2761599118585636</v>
       </c>
       <c r="Q5">
-        <v>0.83254242443</v>
+        <v>3.419223224658</v>
       </c>
       <c r="R5">
-        <v>4.99525454658</v>
+        <v>13.676892898632</v>
       </c>
       <c r="S5">
-        <v>0.2735618615626553</v>
+        <v>0.2017907837940878</v>
       </c>
       <c r="T5">
-        <v>0.219727028286279</v>
+        <v>0.1319277129099236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H6">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I6">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J6">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.8680143333333333</v>
+        <v>0.2530873333333333</v>
       </c>
       <c r="N6">
-        <v>2.604043</v>
+        <v>0.759262</v>
       </c>
       <c r="O6">
-        <v>0.0529584132115474</v>
+        <v>0.01871904672409779</v>
       </c>
       <c r="P6">
-        <v>0.06380491796952287</v>
+        <v>0.02222687163328961</v>
       </c>
       <c r="Q6">
-        <v>0.1063890447793333</v>
+        <v>0.1834652857193333</v>
       </c>
       <c r="R6">
-        <v>0.957501403014</v>
+        <v>1.100791714316</v>
       </c>
       <c r="S6">
-        <v>0.03495796044223591</v>
+        <v>0.01082748957053353</v>
       </c>
       <c r="T6">
-        <v>0.04211776114757792</v>
+        <v>0.01061826939322086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,25 +844,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H7">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I7">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J7">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.411081333333333</v>
+        <v>2.791131666666666</v>
       </c>
       <c r="N7">
-        <v>7.233243999999999</v>
+        <v>8.373394999999999</v>
       </c>
       <c r="O7">
-        <v>0.1471024574524867</v>
+        <v>0.2064399011728847</v>
       </c>
       <c r="P7">
-        <v>0.1772307677229383</v>
+        <v>0.245125366210648</v>
       </c>
       <c r="Q7">
-        <v>0.2955165947013333</v>
+        <v>2.023316465351666</v>
       </c>
       <c r="R7">
-        <v>2.659649352312</v>
+        <v>12.13989879211</v>
       </c>
       <c r="S7">
-        <v>0.09710264293678723</v>
+        <v>0.1194091723706147</v>
       </c>
       <c r="T7">
-        <v>0.1169904041961485</v>
+        <v>0.1171018223562466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H8">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I8">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J8">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.5662895</v>
+        <v>1.684528</v>
       </c>
       <c r="N8">
-        <v>3.132579</v>
+        <v>3.369056</v>
       </c>
       <c r="O8">
-        <v>0.09556087194018067</v>
+        <v>0.1245924002783664</v>
       </c>
       <c r="P8">
-        <v>0.07675524026602094</v>
+        <v>0.09862679185493829</v>
       </c>
       <c r="Q8">
-        <v>0.098850618731</v>
+        <v>0.890013630688</v>
       </c>
       <c r="R8">
-        <v>0.593103712386</v>
+        <v>5.340081784127999</v>
       </c>
       <c r="S8">
-        <v>0.03248093848813384</v>
+        <v>0.05252554054639618</v>
       </c>
       <c r="T8">
-        <v>0.02608894401134371</v>
+        <v>0.05151058663349024</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H9">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I9">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J9">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>6.021522</v>
       </c>
       <c r="O9">
-        <v>0.1224596714564327</v>
+        <v>0.1484562004527854</v>
       </c>
       <c r="P9">
-        <v>0.1475408498483617</v>
+        <v>0.1762759054595506</v>
       </c>
       <c r="Q9">
-        <v>0.126675427372</v>
+        <v>1.060482354204</v>
       </c>
       <c r="R9">
-        <v>1.140078846348</v>
+        <v>9.544341187836</v>
       </c>
       <c r="S9">
-        <v>0.04162378361661848</v>
+        <v>0.06258601775730188</v>
       </c>
       <c r="T9">
-        <v>0.05014882316489845</v>
+        <v>0.09206499703372917</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H10">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I10">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J10">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.745325666666667</v>
+        <v>2.067628</v>
       </c>
       <c r="N10">
-        <v>8.235977</v>
+        <v>6.202884000000001</v>
       </c>
       <c r="O10">
-        <v>0.1674950349002687</v>
+        <v>0.1529275473027211</v>
       </c>
       <c r="P10">
-        <v>0.2017999844410699</v>
+        <v>0.1815851529830098</v>
       </c>
       <c r="Q10">
-        <v>0.1732611632575556</v>
+        <v>1.092422983288</v>
       </c>
       <c r="R10">
-        <v>1.559350469318</v>
+        <v>9.831806849592001</v>
       </c>
       <c r="S10">
-        <v>0.05693120850832175</v>
+        <v>0.06447104372789533</v>
       </c>
       <c r="T10">
-        <v>0.06859138838372937</v>
+        <v>0.09483789929864346</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H11">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I11">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J11">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.792605</v>
+        <v>4.716762</v>
       </c>
       <c r="N11">
-        <v>13.58521</v>
+        <v>9.433524</v>
       </c>
       <c r="O11">
-        <v>0.4144235510390837</v>
+        <v>0.3488649040691446</v>
       </c>
       <c r="P11">
-        <v>0.3328682397520862</v>
+        <v>0.2761599118585636</v>
       </c>
       <c r="Q11">
-        <v>0.4286903583566667</v>
+        <v>2.492082335652</v>
       </c>
       <c r="R11">
-        <v>2.57214215014</v>
+        <v>14.952494013912</v>
       </c>
       <c r="S11">
-        <v>0.1408616894764284</v>
+        <v>0.1470741202750567</v>
       </c>
       <c r="T11">
-        <v>0.1131412114658072</v>
+        <v>0.14423219894864</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H12">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I12">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J12">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.8680143333333333</v>
+        <v>0.2530873333333333</v>
       </c>
       <c r="N12">
-        <v>2.604043</v>
+        <v>0.759262</v>
       </c>
       <c r="O12">
-        <v>0.0529584132115474</v>
+        <v>0.01871904672409779</v>
       </c>
       <c r="P12">
-        <v>0.06380491796952287</v>
+        <v>0.02222687163328961</v>
       </c>
       <c r="Q12">
-        <v>0.05478154192911112</v>
+        <v>0.1337176802173333</v>
       </c>
       <c r="R12">
-        <v>0.493033877362</v>
+        <v>1.203459121956</v>
       </c>
       <c r="S12">
-        <v>0.01800045276931149</v>
+        <v>0.007891557153564254</v>
       </c>
       <c r="T12">
-        <v>0.02168715682194496</v>
+        <v>0.01160860224006875</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H13">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I13">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J13">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.411081333333333</v>
+        <v>2.791131666666666</v>
       </c>
       <c r="N13">
-        <v>7.233243999999999</v>
+        <v>8.373394999999999</v>
       </c>
       <c r="O13">
-        <v>0.1471024574524867</v>
+        <v>0.2064399011728847</v>
       </c>
       <c r="P13">
-        <v>0.1772307677229383</v>
+        <v>0.245125366210648</v>
       </c>
       <c r="Q13">
-        <v>0.1521665577217778</v>
+        <v>1.474683251556666</v>
       </c>
       <c r="R13">
-        <v>1.369499019496</v>
+        <v>13.27214926401</v>
       </c>
       <c r="S13">
-        <v>0.0499998145156995</v>
+        <v>0.08703072880227004</v>
       </c>
       <c r="T13">
-        <v>0.06024036352678985</v>
+        <v>0.1280235438544013</v>
       </c>
     </row>
   </sheetData>
